--- a/results/I3_N5_M3_T15_C100_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452796498</v>
+        <v>839.9596863901647</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.788310969284333</v>
+        <v>7.851700276669249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.788310969284333</v>
+        <v>7.851700276669249</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>874.3200000000019</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.4300000000001</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,56 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3.760722006188162</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.609877556165682</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.7906389553977</v>
+        <v>7.51126863301471</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.69536195791427</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.78831096928433</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,7 +1075,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -1045,7 +1089,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -1059,7 +1103,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
@@ -1073,7 +1117,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -1087,15 +1131,71 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9349999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7849999999988</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8199999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8149999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>109.4349999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>168.2250000000009</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>161.7300000000009</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.6850000000009</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>166.9900000000009</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>168.2250000000009</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>161.7300000000009</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>165.6850000000009</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.9900000000009</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>170.2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>109.9349999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>106.7849999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>100.8199999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>107.8149999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>109.4349999999997</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.22500000000088</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.7300000000009</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>65.68500000000085</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>66.99000000000086</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.19999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.934999999999711</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.784999999998838</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8199999999988319</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.81499999999884</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.434999999999711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2153,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2280,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2291,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2302,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2313,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,10 +2324,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2235,10 +2335,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,10 +2346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,10 +2357,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2268,78 +2368,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
